--- a/src/main/resources/static/files/20240320_ETC_6_EXCEL.xlsx
+++ b/src/main/resources/static/files/20240320_ETC_6_EXCEL.xlsx
@@ -30,6 +30,151 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
+    <t>경매번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구제역백신접종일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하자코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매대상 구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출하자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합원여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관내외구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰자명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구제역백신접종여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구제역백신접종일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+암: 1
+수: 2
+거세: 3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농가명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -59,169 +204,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 염소
-6: 말</t>
+      <t>6: 말</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구제역백신접종일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출하자코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매대상 구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출하자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합원여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관내외구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰자명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참가번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개체번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구제역백신접종여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구제역백신접종일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예정가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>성별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-암: 1
-수: 2
-거세: 3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농가명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,7 +651,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,31 +674,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="6"/>
@@ -730,13 +718,13 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>20231222</v>
@@ -754,7 +742,7 @@
         <v>100000</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -896,102 +884,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
